--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E1B73-C8F3-174B-9EE0-45B97CFFF452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2320AF26-2FB2-544A-959C-08A2A7C0F3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>들려오는 곡이 나온 '애니메이션의 이름을' 입력해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도전! 한국 가요 마스터! (난이도 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들려오는 곡의 '제목을' 입력해 주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831136E3-9C95-8B4F-B26F-E9CDC5B3AA45}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -489,6 +497,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DB8F7-2900-1846-BBF2-2DB04BB536A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168C97D-863A-AB4B-9DE2-39370CC68335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
+    <workbookView xWindow="720" yWindow="980" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,43 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인싸 감성! 당신의 K-POP 걸그룹  지식은?(난이도 상)</t>
+    <t>한국어 애니메이션 OST로 떠나는 추억여행 (난이도 중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추억을 불러 일으키는 게임들.. (난이도 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아는듯 모르는듯... 긴가민가한 광고들 (난이도 하)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>들려오는 광고가 '어떤 제품'의 광고인지 입력해 주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">들려오는 곡이 나온 '게임 이름을' 입력해 주세요! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>들려오는 곡을 부른 '가수를' 입력해 주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신이 최고의 오타쿠! 일본 애니메이션 OST들 (난이도 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>들려오는 곡이 나온 '애니메이션의 이름을' 입력해 주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도전! 한국 가요 마스터! (난이도 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>들려오는 곡의 '가수를' 입력해 주세요!</t>
+    <t>제시되는 노래를 듣고 애니메이션의 '제목을' 입력해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831136E3-9C95-8B4F-B26F-E9CDC5B3AA45}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -470,39 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168C97D-863A-AB4B-9DE2-39370CC68335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8187D-729E-1543-852C-517A18B70B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="980" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
+    <workbookView xWindow="500" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>한국어 애니메이션 OST로 떠나는 추억여행 (난이도 중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,13 +41,49 @@
   <si>
     <t>제시되는 노래를 듣고 애니메이션의 '제목을' 입력해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>인싸 감성! 당신의 K-POP 걸그룹  지식은?(난이도 상)</t>
+  </si>
+  <si>
+    <t>들려오는 곡을 부른 '가수를' 입력해 주세요!</t>
+  </si>
+  <si>
+    <t>추억을 불러 일으키는 게임들.. (난이도 중)</t>
+  </si>
+  <si>
+    <t>들려오는 곡이 나온 '게임 이름을' 입력해 주세요! </t>
+  </si>
+  <si>
+    <t>아는듯 모르는듯... 긴가민가한 광고들 (난이도 하)</t>
+  </si>
+  <si>
+    <t>들려오는 광고가 '어떤 제품'의 광고인지 입력해 주세요!</t>
+  </si>
+  <si>
+    <t>당신이 최고의 오타쿠! 일본 애니메이션 OST들 (난이도 중)</t>
+  </si>
+  <si>
+    <t>들려오는 곡이 나온 '애니메이션의 이름을' 입력해 주세요!</t>
+  </si>
+  <si>
+    <t>도전! 한국 가요 마스터! (난이도 중)</t>
+  </si>
+  <si>
+    <t>들려오는 곡의 '가수를' 입력해 주세요!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +98,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,8 +129,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831136E3-9C95-8B4F-B26F-E9CDC5B3AA45}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -425,21 +463,97 @@
     <col min="3" max="3" width="77.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+    <row r="9" spans="1:4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8187D-729E-1543-852C-517A18B70B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF5869-061D-0F49-B6AB-0B3691B530DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
@@ -35,48 +35,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>인싸 감성! 당신의 K-POP 걸그룹  지식은?(난이도 상)</t>
+  </si>
+  <si>
+    <t>들려오는 곡을 부른 '가수를' 입력해 주세요!</t>
+  </si>
+  <si>
+    <t>추억을 불러 일으키는 게임들.. (난이도 중)</t>
+  </si>
+  <si>
+    <t>들려오는 곡이 나온 '게임 이름을' 입력해 주세요! </t>
+  </si>
+  <si>
+    <t>아는듯 모르는듯... 긴가민가한 광고들 (난이도 하)</t>
+  </si>
+  <si>
+    <t>들려오는 광고가 '어떤 제품'의 광고인지 입력해 주세요!</t>
+  </si>
+  <si>
+    <t>당신이 최고의 오타쿠! 일본 애니메이션 OST들 (난이도 중)</t>
+  </si>
+  <si>
+    <t>들려오는 곡이 나온 '애니메이션의 이름을' 입력해 주세요!</t>
+  </si>
+  <si>
+    <t>도전! 한국 가요 마스터! (난이도 중)</t>
+  </si>
+  <si>
+    <t>들려오는 곡의 '가수를' 입력해 주세요!</t>
+  </si>
+  <si>
     <t>한국어 애니메이션 OST로 떠나는 추억여행 (난이도 중)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제시되는 노래를 듣고 애니메이션의 '제목을' 입력해주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>인싸 감성! 당신의 K-POP 걸그룹  지식은?(난이도 상)</t>
-  </si>
-  <si>
-    <t>들려오는 곡을 부른 '가수를' 입력해 주세요!</t>
-  </si>
-  <si>
-    <t>추억을 불러 일으키는 게임들.. (난이도 중)</t>
-  </si>
-  <si>
-    <t>들려오는 곡이 나온 '게임 이름을' 입력해 주세요! </t>
-  </si>
-  <si>
-    <t>아는듯 모르는듯... 긴가민가한 광고들 (난이도 하)</t>
-  </si>
-  <si>
-    <t>들려오는 광고가 '어떤 제품'의 광고인지 입력해 주세요!</t>
-  </si>
-  <si>
-    <t>당신이 최고의 오타쿠! 일본 애니메이션 OST들 (난이도 중)</t>
-  </si>
-  <si>
-    <t>들려오는 곡이 나온 '애니메이션의 이름을' 입력해 주세요!</t>
-  </si>
-  <si>
-    <t>도전! 한국 가요 마스터! (난이도 중)</t>
-  </si>
-  <si>
-    <t>들려오는 곡의 '가수를' 입력해 주세요!</t>
   </si>
 </sst>
 </file>
@@ -453,7 +451,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -465,58 +463,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF5869-061D-0F49-B6AB-0B3691B530DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7979E298-1FC3-8D46-992D-E7B5AAA2BED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>제시되는 노래를 듣고 애니메이션의 '제목을' 입력해주세요!</t>
+  </si>
+  <si>
+    <t>드라마 OST로 안방극장 탐험(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,7 +455,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -517,6 +521,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="9" spans="1:4">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7979E298-1FC3-8D46-992D-E7B5AAA2BED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477621B-91A0-994D-B492-C43873377D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>title</t>
   </si>
@@ -77,7 +77,11 @@
     <t>제시되는 노래를 듣고 애니메이션의 '제목을' 입력해주세요!</t>
   </si>
   <si>
-    <t>드라마 OST로 안방극장 탐험(</t>
+    <t>드라마 OST로 안방극장 탐험(난이도 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들려오는 곡이 나온 '드라마의 이름'을 입력해 주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +459,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -525,6 +529,9 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="1"/>

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477621B-91A0-994D-B492-C43873377D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A24B3B-73F3-2341-AE6D-916389163DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>

--- a/Questions/AllQuestionList.xlsx
+++ b/Questions/AllQuestionList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A24B3B-73F3-2341-AE6D-916389163DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA5F17D-FC9E-0145-A722-A44186F93ABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="960" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>title</t>
   </si>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>들려오는 곡이 나온 '드라마의 이름'을 입력해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들려오는 곡을 부른 '가수를' 입력해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난이도 상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831136E3-9C95-8B4F-B26F-E9CDC5B3AA45}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -534,6 +542,12 @@
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
